--- a/data/role-mnc.xlsx
+++ b/data/role-mnc.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/global-goliaths/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AF23E1-05A2-6742-B677-4E1B1754412F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3ED147-EBD6-8743-A35E-DA7814BF64C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{040CBE59-C8FA-694F-8BEB-1A8834E7EBE6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{040CBE59-C8FA-694F-8BEB-1A8834E7EBE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>Figure 1: The Role of Multinational Firms in the U.S. Economy, 2017</t>
   </si>
@@ -368,6 +370,111 @@
   </si>
   <si>
     <t>Just physical capital investment</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>employment_parents</t>
+  </si>
+  <si>
+    <t>employment_affiliates</t>
+  </si>
+  <si>
+    <t>employment_other</t>
+  </si>
+  <si>
+    <t>employee_compensation</t>
+  </si>
+  <si>
+    <t>employee_compensation_parents</t>
+  </si>
+  <si>
+    <t>employee_compensation_affiliates</t>
+  </si>
+  <si>
+    <t>employee_compensation_other</t>
+  </si>
+  <si>
+    <t>manufacturing_employment</t>
+  </si>
+  <si>
+    <t>manufacturing_employment_parents</t>
+  </si>
+  <si>
+    <t>manufacturing_employment_other</t>
+  </si>
+  <si>
+    <t>manufacturing_compensation</t>
+  </si>
+  <si>
+    <t>manufacturing_compensation_parents</t>
+  </si>
+  <si>
+    <t>manufacturing_compensation_affiliates</t>
+  </si>
+  <si>
+    <t>manufacturing_compensation_other</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>imports_parents</t>
+  </si>
+  <si>
+    <t>imports_affiliates</t>
+  </si>
+  <si>
+    <t>rnd</t>
+  </si>
+  <si>
+    <t>rnd_parents</t>
+  </si>
+  <si>
+    <t>rnd_affiliates</t>
+  </si>
+  <si>
+    <t>rnd_others</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>capital_parents</t>
+  </si>
+  <si>
+    <t>capital_affiliates</t>
+  </si>
+  <si>
+    <t>capital_others</t>
+  </si>
+  <si>
+    <t>manufacturing_employment_affiliates</t>
+  </si>
+  <si>
+    <t>exports</t>
+  </si>
+  <si>
+    <t>exports_parents</t>
+  </si>
+  <si>
+    <t>exports_affiliates</t>
+  </si>
+  <si>
+    <t>exports_other</t>
+  </si>
+  <si>
+    <t>imports_other</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>affiliates</t>
+  </si>
+  <si>
+    <t>mnc_type</t>
   </si>
 </sst>
 </file>
@@ -428,10 +535,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,7 +872,7 @@
             <c:numRef>
               <c:f>[1]Fig1!$H$11:$O$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.20094191522762953</c:v>
@@ -921,7 +1028,7 @@
             <c:numRef>
               <c:f>[1]Fig1!$H$12:$O$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6.3579277864992151E-2</c:v>
@@ -1042,7 +1149,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2165,11 +2272,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFFFCA9-D8CB-ED4A-A830-7F59D409BD83}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.20094191522762953</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.23808962681027068</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.59852426449720941</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.35668226071564046</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.66508372906773305</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.39379383634431453</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.2530747235332621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.3579277864992151E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.9775638381862538E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.20967741935483872</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.23782045218049383</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.17581236565937541</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.17020744813796548</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.20395324123273112</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.27388293657629104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FCBF2C-7E61-F740-B18E-FA59667186AE}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2692,16 +2906,16 @@
         <f>B39/B38</f>
         <v>0.35668226071564046</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2714,14 +2928,14 @@
         <f>B40/B38</f>
         <v>0.17581236565937541</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2735,50 +2949,50 @@
         <f>B41/B38</f>
         <v>0.46750537362498412</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -2796,22 +3010,22 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2847,4 +3061,658 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A195903-3420-B346-B771-0EA6B08CC0A4}">
+  <dimension ref="A1:AP39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>127.4</v>
+      </c>
+      <c r="C1" s="2">
+        <f>B1/B1</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2/B1</f>
+        <v>0.20094191522762953</v>
+      </c>
+      <c r="D2" s="1">
+        <v>127.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2-E2-F2</f>
+        <v>93.700000000000017</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8486.2999999999993</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2020.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>677</v>
+      </c>
+      <c r="K2" s="1">
+        <f>H2-I2-J2</f>
+        <v>5788.7999999999993</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="O2" s="1">
+        <f>L2-M2-N2</f>
+        <v>3.4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1057.0999999999999</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>632.70000000000005</v>
+      </c>
+      <c r="R2" s="1">
+        <v>251.4</v>
+      </c>
+      <c r="S2" s="1">
+        <f>P2-Q2-R2</f>
+        <v>172.99999999999986</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2352.5</v>
+      </c>
+      <c r="U2" s="1">
+        <f>617.5+308.9</f>
+        <v>926.4</v>
+      </c>
+      <c r="V2" s="1">
+        <f>394.2+85.6</f>
+        <v>479.79999999999995</v>
+      </c>
+      <c r="W2" s="1">
+        <f>T2-U2-V2</f>
+        <v>946.3</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2902.7</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>588.8+145.8</f>
+        <v>734.59999999999991</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>700.9+94.1</f>
+        <v>795</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>X2-Y2-Z2</f>
+        <v>1373.1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>400.1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>AB2-AC2-AD2</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1581.8</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="AI2" s="1">
+        <f>AF2-AG2-AH2</f>
+        <v>739.49999999999989</v>
+      </c>
+      <c r="AJ2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3/B1</f>
+        <v>6.3579277864992151E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B1-B2-B3</f>
+        <v>93.700000000000017</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B4/B1</f>
+        <v>0.73547880690737844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8486.2999999999993</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6/B6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2020.5</v>
+      </c>
+      <c r="C7" s="2">
+        <f>B7/B6</f>
+        <v>0.23808962681027068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>677</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B8/B6</f>
+        <v>7.9775638381862538E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B6-B7-B8</f>
+        <v>5788.7999999999993</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9/B6</f>
+        <v>0.68213473480786679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12/B11</f>
+        <v>0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13/B11</f>
+        <v>0.20967741935483872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B11-B12-B13</f>
+        <v>3.4</v>
+      </c>
+      <c r="C14" s="2">
+        <f>B14/B11</f>
+        <v>0.27419354838709675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:42" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1057.0999999999999</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B16/B16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>632.70000000000005</v>
+      </c>
+      <c r="C17" s="2">
+        <f>B17/B16</f>
+        <v>0.59852426449720941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>251.4</v>
+      </c>
+      <c r="C18" s="2">
+        <f>B18/B16</f>
+        <v>0.23782045218049383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B16-B17-B18</f>
+        <v>172.99999999999986</v>
+      </c>
+      <c r="C19" s="2">
+        <f>B19/B16</f>
+        <v>0.16365528332229673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2352.5</v>
+      </c>
+      <c r="C21" s="2">
+        <f>B21/B21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <f>617.5+308.9</f>
+        <v>926.4</v>
+      </c>
+      <c r="C22" s="2">
+        <f>B22/B21</f>
+        <v>0.39379383634431453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <f>394.2+85.6</f>
+        <v>479.79999999999995</v>
+      </c>
+      <c r="C23" s="2">
+        <f>B23/B21</f>
+        <v>0.20395324123273112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B21-B22-B23</f>
+        <v>946.3</v>
+      </c>
+      <c r="C24" s="2">
+        <f>B24/B21</f>
+        <v>0.4022529224229543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2902.7</v>
+      </c>
+      <c r="C26" s="2">
+        <f>B26/B26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <f>588.8+145.8</f>
+        <v>734.59999999999991</v>
+      </c>
+      <c r="C27" s="2">
+        <f>B27/B26</f>
+        <v>0.2530747235332621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <f>700.9+94.1</f>
+        <v>795</v>
+      </c>
+      <c r="C28" s="2">
+        <f>B28/B26</f>
+        <v>0.27388293657629104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B26-B27-B28</f>
+        <v>1373.1</v>
+      </c>
+      <c r="C29" s="2">
+        <f>B29/B26</f>
+        <v>0.47304233989044681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>400.1</v>
+      </c>
+      <c r="C31" s="2">
+        <f>B31/B31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="C32" s="2">
+        <f>B32/B31</f>
+        <v>0.66508372906773305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="C33" s="2">
+        <f>B33/B31</f>
+        <v>0.17020744813796548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B31-B32-B33</f>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="C34" s="2">
+        <f>B34/B31</f>
+        <v>0.16470882279430143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1581.8</v>
+      </c>
+      <c r="C36" s="2">
+        <f>B36/B36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="C37" s="2">
+        <f>B37/B36</f>
+        <v>0.35668226071564046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="C38" s="2">
+        <f>B38/B36</f>
+        <v>0.17581236565937541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B36-B37-B38</f>
+        <v>739.49999999999989</v>
+      </c>
+      <c r="C39" s="2">
+        <f>B39/B36</f>
+        <v>0.46750537362498412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/role-mnc.xlsx
+++ b/data/role-mnc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/global-goliaths/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3ED147-EBD6-8743-A35E-DA7814BF64C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2097325-FBB4-794B-BC05-1ACA3A2E3C45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{040CBE59-C8FA-694F-8BEB-1A8834E7EBE6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Figure 1: The Role of Multinational Firms in the U.S. Economy, 2017</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>mnc_type</t>
+  </si>
+  <si>
+    <t>Employee Compensation</t>
+  </si>
+  <si>
+    <t>Manufacturing Employee Compensation</t>
   </si>
 </sst>
 </file>
@@ -2276,7 +2282,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2294,13 +2300,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
